--- a/biology/Zoologie/Grive_de_Piaggia/Grive_de_Piaggia.xlsx
+++ b/biology/Zoologie/Grive_de_Piaggia/Grive_de_Piaggia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geokichla piaggiae
 La Grive de Piaggia (Geokichla piaggiae, anciennement Zoothera piaggiae) est une espèce de passereaux de la famille des Turdidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est répandue de manière dissoute à travers l'Afrique de l'Est.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit dans les forêts de haute altitude.
 </t>
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 6 sous-espèces :
 Zoothera piaggiae hadii (Macdonald, 1940)
@@ -610,7 +628,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sharpe &amp; Bouvier, 1877 : Nouvelle liste d’oiseaux recueillis dans la région du Congo par MM. le Dr A. Lucan et L. Petit, de Septembre 1876 à Septembre 1877. Bulletin de la Société Zoologique de France, vol. 2, p. 470-481.</t>
         </is>
